--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Projects\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC84B8C4-6270-44AD-B013-B79008F15CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DBD188CB-1B26-41A3-84D8-A44F2873A7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{478EBAE4-E6F1-4CFB-B294-99C66D7F6D4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{478EBAE4-E6F1-4CFB-B294-99C66D7F6D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchBrowser" sheetId="1" r:id="rId1"/>
+    <sheet name="demo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Search</t>
   </si>
   <si>
     <t>Cadburry</t>
+  </si>
+  <si>
+    <t>akshith</t>
   </si>
 </sst>
 </file>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3559A1BF-0F71-4929-9DA5-1F2AF5609FB1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,4 +403,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759BE8B2-945F-4963-9348-7A9ED00CF567}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>